--- a/FieldOps.xlsx
+++ b/FieldOps.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Tasks</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Content creator's content page</t>
+  </si>
+  <si>
+    <t>logout function</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,171 +1040,175 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
+      <c r="A4" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
@@ -1228,7 +1235,10 @@
       <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A2:C21">

--- a/FieldOps.xlsx
+++ b/FieldOps.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Tasks</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>logout function</t>
+  </si>
+  <si>
+    <t>test it</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,6 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1218,9 @@
       <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
